--- a/SPPSApi/Doc/Template/FS1205_Exp.xlsx
+++ b/SPPSApi/Doc/Template/FS1205_Exp.xlsx
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,7 +130,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -442,11 +448,12 @@
     <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="4" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" customWidth="1"/>
+    <col min="9" max="10" width="11.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -459,10 +466,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -471,21 +478,18 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
